--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanSyndItem.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanSyndItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678661A3-AC88-47FE-B626-93973F348447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1094E5BE-1E46-454D-B3E7-32ACCA4E6533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,16 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -163,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聯貸案序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SyndNo,SyndSeq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +212,10 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸案費用序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +844,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -889,7 +899,7 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>21</v>
@@ -1009,7 +1019,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>27</v>
@@ -1046,10 +1056,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>27</v>
@@ -1069,13 +1079,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="28">
         <v>40</v>
@@ -1090,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>27</v>
@@ -1227,13 +1237,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
